--- a/inst/extdata/folder_names.xlsx
+++ b/inst/extdata/folder_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccarmour.stu\Documents\GitHub\PEMprepr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD46559-B234-4FC8-B26F-393BD4C581D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DF634E-3994-4154-8343-1B1C9F5088B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{73657F82-14A6-446E-AFD3-C0651560FD71}"/>
+    <workbookView xWindow="-45" yWindow="0" windowWidth="21135" windowHeight="20895" xr2:uid="{73657F82-14A6-446E-AFD3-C0651560FD71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
